--- a/zhibao/Template/Template.xlsx
+++ b/zhibao/Template/Template.xlsx
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2:A77"/>
@@ -1341,6 +1341,13 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>200:测试234</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
